--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
@@ -68,7 +68,7 @@
     <x:numFmt numFmtId="166" formatCode="#,0.0"/>
     <x:numFmt numFmtId="167" formatCode="#,0.00"/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -88,20 +88,12 @@
       <x:u val="single"/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
-      <x:color rgb="FFFFA700"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:i/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:u val="single"/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -123,7 +115,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="10">
+  <x:borders count="8">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -160,16 +152,16 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
-        <x:color rgb="FF000000"/>
+        <x:color rgb="FFFFA500"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="FF000000"/>
+        <x:color rgb="FFFFA500"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="FF000000"/>
+        <x:color rgb="FFFFA500"/>
       </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
+      <x:bottom style="thin">
+        <x:color rgb="FFFFA500"/>
       </x:bottom>
       <x:diagonal style="none">
         <x:color rgb="FF000000"/>
@@ -227,23 +219,6 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="medium">
         <x:color rgb="FFFF0000"/>
       </x:left>
@@ -277,25 +252,8 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="13">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -308,35 +266,29 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="4" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -353,10 +305,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -365,27 +313,23 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -694,10 +638,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="n">
+      <x:c r="C2" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="4" t="n">
+      <x:c r="D2" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E2" s="2" t="n">
@@ -708,88 +652,88 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" customFormat="1" ht="15.218096" customHeight="1">
-      <x:c r="B3" s="5" t="s">
+      <x:c r="B3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="7" t="s">
+      <x:c r="C3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="7" t="s">
+      <x:c r="D3" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="7" t="s">
+      <x:c r="E3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="6" t="n">
+      <x:c r="F3" s="5" t="n">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="5" t="s">
+      <x:c r="B4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C4" s="7" t="s">
+      <x:c r="C4" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D4" s="7" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E4" s="7" t="s"/>
-      <x:c r="F4" s="6" t="s"/>
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="5" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="5" t="s">
+      <x:c r="B5" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="7" t="s"/>
-      <x:c r="D5" s="7" t="n">
+      <x:c r="C5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="7" t="s"/>
-      <x:c r="F5" s="6" t="s"/>
+      <x:c r="E5" s="2" t="s"/>
+      <x:c r="F5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="5" t="s">
+      <x:c r="B6" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s">
+      <x:c r="C6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E6" s="7" t="s">
+      <x:c r="E6" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F6" s="6" t="s"/>
+      <x:c r="F6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="B7" s="5" t="s">
+      <x:c r="B7" s="4" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C7" s="9" t="n">
+      <x:c r="C7" s="7" t="n">
         <x:v>523635.93</x:v>
       </x:c>
-      <x:c r="D7" s="9" t="s"/>
-      <x:c r="E7" s="9" t="n">
+      <x:c r="D7" s="7" t="s"/>
+      <x:c r="E7" s="7" t="n">
         <x:v>100000.5532</x:v>
       </x:c>
-      <x:c r="F7" s="8" t="n">
+      <x:c r="F7" s="6" t="n">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="B8" s="10" t="s">
+      <x:c r="B8" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C8" s="12" t="n">
+      <x:c r="C8" s="10" t="n">
         <x:v>2.6</x:v>
       </x:c>
-      <x:c r="D8" s="12" t="n">
+      <x:c r="D8" s="10" t="n">
         <x:v>5.2</x:v>
       </x:c>
-      <x:c r="E8" s="12" t="n">
+      <x:c r="E8" s="10" t="n">
         <x:v>7.8</x:v>
       </x:c>
-      <x:c r="F8" s="11" t="n">
+      <x:c r="F8" s="9" t="n">
         <x:v>15.6</x:v>
       </x:c>
     </x:row>

--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
@@ -64,8 +64,8 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="4">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,0.00"/>
-    <x:numFmt numFmtId="166" formatCode="#,0.0"/>
+    <x:numFmt numFmtId="165" formatCode="#,0.0"/>
+    <x:numFmt numFmtId="166" formatCode="$ #,0.00"/>
     <x:numFmt numFmtId="167" formatCode="#,0.00"/>
   </x:numFmts>
   <x:fonts count="4">
@@ -272,10 +272,10 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -313,11 +313,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -689,7 +689,9 @@
       <x:c r="D5" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s"/>
+      <x:c r="E5" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="F5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -709,14 +711,14 @@
       <x:c r="B7" s="4" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C7" s="7" t="n">
+      <x:c r="C7" s="6" t="n">
         <x:v>523635.93</x:v>
       </x:c>
-      <x:c r="D7" s="7" t="s"/>
-      <x:c r="E7" s="7" t="n">
+      <x:c r="D7" s="6" t="s"/>
+      <x:c r="E7" s="6" t="n">
         <x:v>100000.5532</x:v>
       </x:c>
-      <x:c r="F7" s="6" t="n">
+      <x:c r="F7" s="7" t="n">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>
@@ -738,6 +740,10 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="C5:C5"/>
+    <x:mergeCell ref="D5:E5"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
@@ -111,7 +111,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00DDDD"/>
-        <x:bgColor rgb="FF00DDDD"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -281,10 +280,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="167" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="167" fontId="3" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -325,11 +324,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -689,9 +688,7 @@
       <x:c r="D5" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="E5" s="2" t="s"/>
       <x:c r="F5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -726,16 +723,16 @@
       <x:c r="B8" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C8" s="10" t="n">
+      <x:c r="C8" s="9" t="n">
         <x:v>2.6</x:v>
       </x:c>
-      <x:c r="D8" s="10" t="n">
+      <x:c r="D8" s="9" t="n">
         <x:v>5.2</x:v>
       </x:c>
-      <x:c r="E8" s="10" t="n">
+      <x:c r="E8" s="9" t="n">
         <x:v>7.8</x:v>
       </x:c>
-      <x:c r="F8" s="9" t="n">
+      <x:c r="F8" s="10" t="n">
         <x:v>15.6</x:v>
       </x:c>
     </x:row>

--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -64,9 +64,9 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="4">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,0.0"/>
-    <x:numFmt numFmtId="166" formatCode="$ #,0.00"/>
-    <x:numFmt numFmtId="167" formatCode="#,0.00"/>
+    <x:numFmt numFmtId="164" formatCode="#,0.0"/>
+    <x:numFmt numFmtId="165" formatCode="$ #,0.00"/>
+    <x:numFmt numFmtId="166" formatCode="#,0.00"/>
   </x:numFmts>
   <x:fonts count="4">
     <x:font>
@@ -271,19 +271,19 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="167" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -312,11 +312,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -324,11 +324,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -633,24 +633,24 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:6" customFormat="1" ht="30" customHeight="1">
+    <x:row r="2" spans="1:6" ht="30" customHeight="1">
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="n">
+      <x:c r="C2" s="2">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="n">
+      <x:c r="D2" s="2">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="n">
+      <x:c r="E2" s="2">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="n">
+      <x:c r="F2" s="3">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="3" spans="1:6" ht="13.75" customHeight="1">
       <x:c r="B3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -663,7 +663,7 @@
       <x:c r="E3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="5" t="n">
+      <x:c r="F3" s="5">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -677,68 +677,67 @@
       <x:c r="D4" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="s"/>
-      <x:c r="F4" s="5" t="s"/>
+      <x:c r="E4" s="2"/>
+      <x:c r="F4" s="5"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="B5" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s"/>
-      <x:c r="D5" s="2" t="n">
+      <x:c r="C5" s="2"/>
+      <x:c r="D5" s="2">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s"/>
-      <x:c r="F5" s="5" t="s"/>
+      <x:c r="E5" s="2"/>
+      <x:c r="F5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="B6" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s"/>
+      <x:c r="C6" s="2"/>
       <x:c r="D6" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F6" s="5" t="s"/>
+      <x:c r="F6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="B7" s="4" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C7" s="6" t="n">
+      <x:c r="C7" s="6">
         <x:v>523635.93</x:v>
       </x:c>
-      <x:c r="D7" s="6" t="s"/>
-      <x:c r="E7" s="6" t="n">
+      <x:c r="D7" s="6"/>
+      <x:c r="E7" s="6">
         <x:v>100000.5532</x:v>
       </x:c>
-      <x:c r="F7" s="7" t="n">
+      <x:c r="F7" s="7">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6" customFormat="1" ht="20" customHeight="1">
+    <x:row r="8" spans="1:6" ht="20" customHeight="1">
       <x:c r="B8" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C8" s="9" t="n">
+      <x:c r="C8" s="9">
         <x:v>2.6</x:v>
       </x:c>
-      <x:c r="D8" s="9" t="n">
+      <x:c r="D8" s="9">
         <x:v>5.2</x:v>
       </x:c>
-      <x:c r="E8" s="9" t="n">
+      <x:c r="E8" s="9">
         <x:v>7.8</x:v>
       </x:c>
-      <x:c r="F8" s="10" t="n">
+      <x:c r="F8" s="10">
         <x:v>15.6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="2">
-    <x:mergeCell ref="C5:C5"/>
+  <x:mergeCells count="1">
     <x:mergeCell ref="D5:E5"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderDataSetWithEvents_HorizontalPanel.xlsx
@@ -650,7 +650,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6" ht="13.75" customHeight="1">
+    <x:row r="3" spans="1:6" ht="14.25" customHeight="1">
       <x:c r="B3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
